--- a/Lab_02/Copy.xlsx
+++ b/Lab_02/Copy.xlsx
@@ -426,7 +426,7 @@
         <v>1000</v>
       </c>
       <c r="B1" t="n">
-        <v>2.760220086202025e-06</v>
+        <v>3.147440002067014e-06</v>
       </c>
     </row>
     <row r="2">
@@ -434,7 +434,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="n">
-        <v>6.628299597650767e-06</v>
+        <v>7.278960110852495e-06</v>
       </c>
     </row>
     <row r="3">
@@ -442,7 +442,7 @@
         <v>3000</v>
       </c>
       <c r="B3" t="n">
-        <v>9.639099589549005e-06</v>
+        <v>8.907020383048803e-06</v>
       </c>
     </row>
     <row r="4">
@@ -450,7 +450,7 @@
         <v>4000</v>
       </c>
       <c r="B4" t="n">
-        <v>1.434592006262392e-05</v>
+        <v>1.253475886187516e-05</v>
       </c>
     </row>
     <row r="5">
@@ -458,7 +458,7 @@
         <v>5000</v>
       </c>
       <c r="B5" t="n">
-        <v>1.846200073487125e-05</v>
+        <v>1.736167963827029e-05</v>
       </c>
     </row>
     <row r="6">
@@ -466,7 +466,7 @@
         <v>6000</v>
       </c>
       <c r="B6" t="n">
-        <v>2.119641983881593e-05</v>
+        <v>1.922554060001858e-05</v>
       </c>
     </row>
     <row r="7">
@@ -474,7 +474,7 @@
         <v>7000</v>
       </c>
       <c r="B7" t="n">
-        <v>2.483676085830666e-05</v>
+        <v>2.403518068604171e-05</v>
       </c>
     </row>
     <row r="8">
@@ -482,7 +482,7 @@
         <v>8000</v>
       </c>
       <c r="B8" t="n">
-        <v>3.01018801110331e-05</v>
+        <v>2.794479980366305e-05</v>
       </c>
     </row>
     <row r="9">
@@ -490,7 +490,7 @@
         <v>9000</v>
       </c>
       <c r="B9" t="n">
-        <v>3.505231929011643e-05</v>
+        <v>3.12969800143037e-05</v>
       </c>
     </row>
     <row r="10">
@@ -498,7 +498,7 @@
         <v>10000</v>
       </c>
       <c r="B10" t="n">
-        <v>3.961943977628834e-05</v>
+        <v>3.569765991414897e-05</v>
       </c>
     </row>
     <row r="11">
@@ -506,7 +506,7 @@
         <v>11000</v>
       </c>
       <c r="B11" t="n">
-        <v>4.21956203354057e-05</v>
+        <v>3.840613921056502e-05</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>12000</v>
       </c>
       <c r="B12" t="n">
-        <v>4.8121180589078e-05</v>
+        <v>4.320127991377376e-05</v>
       </c>
     </row>
     <row r="13">
@@ -522,7 +522,7 @@
         <v>13000</v>
       </c>
       <c r="B13" t="n">
-        <v>6.624608024139888e-05</v>
+        <v>4.643013991881162e-05</v>
       </c>
     </row>
     <row r="14">
@@ -530,7 +530,7 @@
         <v>14000</v>
       </c>
       <c r="B14" t="n">
-        <v>5.566029998590238e-05</v>
+        <v>5.085117983981036e-05</v>
       </c>
     </row>
     <row r="15">
@@ -538,7 +538,7 @@
         <v>15000</v>
       </c>
       <c r="B15" t="n">
-        <v>6.067935930332169e-05</v>
+        <v>5.308696010615677e-05</v>
       </c>
     </row>
     <row r="16">
@@ -546,7 +546,7 @@
         <v>16000</v>
       </c>
       <c r="B16" t="n">
-        <v>6.765250043827109e-05</v>
+        <v>5.551382011617534e-05</v>
       </c>
     </row>
     <row r="17">
@@ -554,7 +554,7 @@
         <v>17000</v>
       </c>
       <c r="B17" t="n">
-        <v>7.810643961420283e-05</v>
+        <v>6.067795984563418e-05</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>18000</v>
       </c>
       <c r="B18" t="n">
-        <v>6.80101198668126e-05</v>
+        <v>6.406607979442925e-05</v>
       </c>
     </row>
     <row r="19">
@@ -570,7 +570,7 @@
         <v>19000</v>
       </c>
       <c r="B19" t="n">
-        <v>6.742557947291061e-05</v>
+        <v>6.660993982222862e-05</v>
       </c>
     </row>
     <row r="20">
@@ -578,7 +578,7 @@
         <v>20000</v>
       </c>
       <c r="B20" t="n">
-        <v>7.163980044424533e-05</v>
+        <v>6.965862019569613e-05</v>
       </c>
     </row>
     <row r="21">
@@ -586,7 +586,7 @@
         <v>21000</v>
       </c>
       <c r="B21" t="n">
-        <v>7.192144039436243e-05</v>
+        <v>7.651132022147066e-05</v>
       </c>
     </row>
     <row r="22">
@@ -594,7 +594,7 @@
         <v>22000</v>
       </c>
       <c r="B22" t="n">
-        <v>7.635446032509207e-05</v>
+        <v>7.902600045781583e-05</v>
       </c>
     </row>
     <row r="23">
@@ -602,7 +602,7 @@
         <v>23000</v>
       </c>
       <c r="B23" t="n">
-        <v>8.378239974263124e-05</v>
+        <v>8.031500008655712e-05</v>
       </c>
     </row>
     <row r="24">
@@ -610,7 +610,7 @@
         <v>24000</v>
       </c>
       <c r="B24" t="n">
-        <v>8.482192017254419e-05</v>
+        <v>8.960782040958293e-05</v>
       </c>
     </row>
     <row r="25">
@@ -618,7 +618,7 @@
         <v>25000</v>
       </c>
       <c r="B25" t="n">
-        <v>8.954520002589561e-05</v>
+        <v>8.966540000983514e-05</v>
       </c>
     </row>
     <row r="26">
@@ -626,7 +626,7 @@
         <v>26000</v>
       </c>
       <c r="B26" t="n">
-        <v>9.356457987450994e-05</v>
+        <v>9.669727965956554e-05</v>
       </c>
     </row>
     <row r="27">
@@ -634,7 +634,7 @@
         <v>27000</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0001092338196758646</v>
+        <v>9.887063992209732e-05</v>
       </c>
     </row>
     <row r="28">
@@ -642,7 +642,7 @@
         <v>28000</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0001121615200827364</v>
+        <v>0.0001075266998668667</v>
       </c>
     </row>
     <row r="29">
@@ -650,7 +650,7 @@
         <v>29000</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0001054576407477725</v>
+        <v>0.0001075007603503764</v>
       </c>
     </row>
     <row r="30">
@@ -658,7 +658,7 @@
         <v>30000</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0001146830797370058</v>
+        <v>0.0001122550207946915</v>
       </c>
     </row>
     <row r="31">
@@ -666,7 +666,7 @@
         <v>31000</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0001307418604847044</v>
+        <v>0.0001196469599381089</v>
       </c>
     </row>
     <row r="32">
@@ -674,7 +674,7 @@
         <v>32000</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0001338213200506289</v>
+        <v>0.0001213149604154751</v>
       </c>
     </row>
     <row r="33">
@@ -682,7 +682,7 @@
         <v>33000</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0001367890591791365</v>
+        <v>0.0001238158803607803</v>
       </c>
     </row>
     <row r="34">
@@ -690,7 +690,7 @@
         <v>34000</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0001328003800881561</v>
+        <v>0.0001368946203729138</v>
       </c>
     </row>
     <row r="35">
@@ -698,7 +698,7 @@
         <v>35000</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0001384617011353839</v>
+        <v>0.0001389349601231515</v>
       </c>
     </row>
     <row r="36">
@@ -706,7 +706,7 @@
         <v>36000</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0001418150801328011</v>
+        <v>0.0001486502002808265</v>
       </c>
     </row>
     <row r="37">
@@ -714,7 +714,7 @@
         <v>37000</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0001463579796836711</v>
+        <v>0.0001448360603535548</v>
       </c>
     </row>
     <row r="38">
@@ -722,7 +722,7 @@
         <v>38000</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0001536640003905631</v>
+        <v>0.0001541757596714888</v>
       </c>
     </row>
     <row r="39">
@@ -730,7 +730,7 @@
         <v>39000</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0001517959605553187</v>
+        <v>0.0001602590995025821</v>
       </c>
     </row>
     <row r="40">
@@ -738,7 +738,7 @@
         <v>40000</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001518467406276614</v>
+        <v>0.000162917279812973</v>
       </c>
     </row>
     <row r="41">
@@ -746,7 +746,7 @@
         <v>41000</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0001565802602272015</v>
+        <v>0.0001630124002986122</v>
       </c>
     </row>
     <row r="42">
@@ -754,7 +754,7 @@
         <v>42000</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0001679677805805113</v>
+        <v>0.0001701367196801584</v>
       </c>
     </row>
     <row r="43">
@@ -762,7 +762,7 @@
         <v>43000</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0002127331201336346</v>
+        <v>0.0001757952800835483</v>
       </c>
     </row>
     <row r="44">
@@ -770,7 +770,7 @@
         <v>44000</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0002670663803291973</v>
+        <v>0.0001759481595945545</v>
       </c>
     </row>
     <row r="45">
@@ -778,7 +778,7 @@
         <v>45000</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0002347179806383792</v>
+        <v>0.0001826301604160108</v>
       </c>
     </row>
     <row r="46">
@@ -786,7 +786,7 @@
         <v>46000</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0002561715409683529</v>
+        <v>0.0001923993803211488</v>
       </c>
     </row>
     <row r="47">
@@ -794,7 +794,7 @@
         <v>47000</v>
       </c>
       <c r="B47" t="n">
-        <v>0.000261474819999421</v>
+        <v>0.0002204330198583193</v>
       </c>
     </row>
     <row r="48">
@@ -802,7 +802,7 @@
         <v>48000</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0002132773598714266</v>
+        <v>0.0002217904398276005</v>
       </c>
     </row>
     <row r="49">
@@ -810,7 +810,7 @@
         <v>49000</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0002162255997245666</v>
+        <v>0.0002285616003791802</v>
       </c>
     </row>
     <row r="50">
@@ -818,7 +818,7 @@
         <v>50000</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0002166505997593049</v>
+        <v>0.0002462556402315385</v>
       </c>
     </row>
     <row r="51">
@@ -826,7 +826,7 @@
         <v>51000</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0002347413198731374</v>
+        <v>0.0002241776797745842</v>
       </c>
     </row>
     <row r="52">
@@ -834,7 +834,7 @@
         <v>52000</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0002465118201507721</v>
+        <v>0.0002405366601306014</v>
       </c>
     </row>
     <row r="53">
@@ -842,7 +842,7 @@
         <v>53000</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0002414782607229427</v>
+        <v>0.0002529735794814769</v>
       </c>
     </row>
     <row r="54">
@@ -850,7 +850,7 @@
         <v>54000</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0002274451992707327</v>
+        <v>0.0002716705798229668</v>
       </c>
     </row>
     <row r="55">
@@ -858,7 +858,7 @@
         <v>55000</v>
       </c>
       <c r="B55" t="n">
-        <v>0.000246737819397822</v>
+        <v>0.0002427120393258519</v>
       </c>
     </row>
     <row r="56">
@@ -866,7 +866,7 @@
         <v>56000</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0002455617403029464</v>
+        <v>0.0002715237997472286</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>57000</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0002833456400549039</v>
+        <v>0.0002701330602576491</v>
       </c>
     </row>
     <row r="58">
@@ -882,7 +882,7 @@
         <v>58000</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0002537422005843837</v>
+        <v>0.0002751577997696586</v>
       </c>
     </row>
     <row r="59">
@@ -890,7 +890,7 @@
         <v>59000</v>
       </c>
       <c r="B59" t="n">
-        <v>0.000299488460586872</v>
+        <v>0.0002958011203736533</v>
       </c>
     </row>
     <row r="60">
@@ -898,7 +898,7 @@
         <v>60000</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002904314396437257</v>
+        <v>0.0002971306000836193</v>
       </c>
     </row>
     <row r="61">
@@ -906,7 +906,7 @@
         <v>61000</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0002857376597239636</v>
+        <v>0.0003055176198540721</v>
       </c>
     </row>
     <row r="62">
@@ -914,7 +914,7 @@
         <v>62000</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0002983400998346042</v>
+        <v>0.0003051483391027432</v>
       </c>
     </row>
     <row r="63">
@@ -922,7 +922,7 @@
         <v>63000</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0002956661800271831</v>
+        <v>0.0003215770205133594</v>
       </c>
     </row>
     <row r="64">
@@ -930,7 +930,7 @@
         <v>64000</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0002967694803373888</v>
+        <v>0.0003089882599306293</v>
       </c>
     </row>
     <row r="65">
@@ -938,7 +938,7 @@
         <v>65000</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0003380290996574331</v>
+        <v>0.0003262729599373415</v>
       </c>
     </row>
     <row r="66">
@@ -946,7 +946,7 @@
         <v>66000</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0003265126794576645</v>
+        <v>0.0003549701394513249</v>
       </c>
     </row>
     <row r="67">
@@ -954,7 +954,7 @@
         <v>67000</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0003111921402160078</v>
+        <v>0.0003438488203391899</v>
       </c>
     </row>
     <row r="68">
@@ -962,7 +962,7 @@
         <v>68000</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0003349853998224717</v>
+        <v>0.0004157345801650081</v>
       </c>
     </row>
     <row r="69">
@@ -970,7 +970,7 @@
         <v>69000</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0003589116402145009</v>
+        <v>0.000368591320439009</v>
       </c>
     </row>
     <row r="70">
@@ -978,7 +978,7 @@
         <v>70000</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0003572864802845288</v>
+        <v>0.0003468979200988542</v>
       </c>
     </row>
     <row r="71">
@@ -986,7 +986,7 @@
         <v>71000</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0003545071609551087</v>
+        <v>0.0003649287995358463</v>
       </c>
     </row>
     <row r="72">
@@ -994,7 +994,7 @@
         <v>72000</v>
       </c>
       <c r="B72" t="n">
-        <v>0.000351460680103628</v>
+        <v>0.0003761784613016061</v>
       </c>
     </row>
     <row r="73">
@@ -1002,7 +1002,7 @@
         <v>73000</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0003546289799851366</v>
+        <v>0.000376076440588804</v>
       </c>
     </row>
     <row r="74">
@@ -1010,7 +1010,7 @@
         <v>74000</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0004020680596295279</v>
+        <v>0.0003799465800693725</v>
       </c>
     </row>
     <row r="75">
@@ -1018,7 +1018,7 @@
         <v>75000</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0004369316808879376</v>
+        <v>0.0004376471995783504</v>
       </c>
     </row>
     <row r="76">
@@ -1026,7 +1026,7 @@
         <v>76000</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0004512966005131602</v>
+        <v>0.0005661414000496734</v>
       </c>
     </row>
     <row r="77">
@@ -1034,7 +1034,7 @@
         <v>77000</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0005528154196508694</v>
+        <v>0.0004746372198860627</v>
       </c>
     </row>
     <row r="78">
@@ -1042,7 +1042,7 @@
         <v>78000</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0005462748800346162</v>
+        <v>0.0005285455405828543</v>
       </c>
     </row>
     <row r="79">
@@ -1050,7 +1050,7 @@
         <v>79000</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0005124797399912495</v>
+        <v>0.0005057510404731147</v>
       </c>
     </row>
     <row r="80">
@@ -1058,7 +1058,7 @@
         <v>80000</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0004378416601684876</v>
+        <v>0.0005398875602986664</v>
       </c>
     </row>
     <row r="81">
@@ -1066,7 +1066,7 @@
         <v>81000</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0004756287396594416</v>
+        <v>0.0005518829004722647</v>
       </c>
     </row>
     <row r="82">
@@ -1074,7 +1074,7 @@
         <v>82000</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0004812448800657876</v>
+        <v>0.0005682639393489808</v>
       </c>
     </row>
     <row r="83">
@@ -1082,7 +1082,7 @@
         <v>83000</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0004773886605107691</v>
+        <v>0.0005714520797482691</v>
       </c>
     </row>
     <row r="84">
@@ -1090,7 +1090,7 @@
         <v>84000</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0004760408402944449</v>
+        <v>0.0005525870398560073</v>
       </c>
     </row>
     <row r="85">
@@ -1098,7 +1098,7 @@
         <v>85000</v>
       </c>
       <c r="B85" t="n">
-        <v>0.000496079979930073</v>
+        <v>0.0005663095999625512</v>
       </c>
     </row>
     <row r="86">
@@ -1106,7 +1106,7 @@
         <v>86000</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0004724183204234578</v>
+        <v>0.0005967393399623688</v>
       </c>
     </row>
     <row r="87">
@@ -1114,7 +1114,7 @@
         <v>87000</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0004845424204540905</v>
+        <v>0.0005988525204884354</v>
       </c>
     </row>
     <row r="88">
@@ -1122,7 +1122,7 @@
         <v>88000</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0004840710799908266</v>
+        <v>0.0006066546199144795</v>
       </c>
     </row>
     <row r="89">
@@ -1130,7 +1130,7 @@
         <v>89000</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0005006463197059929</v>
+        <v>0.0006179899800918065</v>
       </c>
     </row>
     <row r="90">
@@ -1138,7 +1138,7 @@
         <v>90000</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0005617038205673453</v>
+        <v>0.0006213655805913732</v>
       </c>
     </row>
     <row r="91">
@@ -1146,7 +1146,7 @@
         <v>91000</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0005222336006409023</v>
+        <v>0.0006545679594273678</v>
       </c>
     </row>
     <row r="92">
@@ -1154,7 +1154,7 @@
         <v>92000</v>
       </c>
       <c r="B92" t="n">
-        <v>0.000527400860155467</v>
+        <v>0.0006503662001341581</v>
       </c>
     </row>
     <row r="93">
@@ -1162,7 +1162,7 @@
         <v>93000</v>
       </c>
       <c r="B93" t="n">
-        <v>0.000518094959697919</v>
+        <v>0.0006390352599555626</v>
       </c>
     </row>
     <row r="94">
@@ -1170,7 +1170,7 @@
         <v>94000</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0005529959201521706</v>
+        <v>0.0006803137595125008</v>
       </c>
     </row>
     <row r="95">
@@ -1178,7 +1178,7 @@
         <v>95000</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0005521626603149344</v>
+        <v>0.0006205167809093837</v>
       </c>
     </row>
     <row r="96">
@@ -1186,7 +1186,7 @@
         <v>96000</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0006044057592225726</v>
+        <v>0.0006101165604195558</v>
       </c>
     </row>
     <row r="97">
@@ -1194,7 +1194,7 @@
         <v>97000</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0006008708401350304</v>
+        <v>0.0005987626200658269</v>
       </c>
     </row>
     <row r="98">
@@ -1202,7 +1202,7 @@
         <v>98000</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0006102051798370666</v>
+        <v>0.000659799699933501</v>
       </c>
     </row>
     <row r="99">
@@ -1210,7 +1210,7 @@
         <v>99000</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0005961200199089945</v>
+        <v>0.0006519842198758852</v>
       </c>
     </row>
   </sheetData>
